--- a/data/trans_bre/P33A-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P33A-Clase-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>-10.60958539985519</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-4.43448609280459</v>
+        <v>-4.434486092804601</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>-0.07572251426714366</v>
@@ -627,7 +627,7 @@
         <v>-0.1269049722310244</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>-0.05320788123295227</v>
+        <v>-0.05320788123295241</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.48987931965649</v>
+        <v>-12.45927237985071</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-16.22320745440221</v>
+        <v>-16.64553687400725</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.099302938576592</v>
+        <v>-9.060099579669718</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.1505944341707412</v>
+        <v>-0.1480918674525684</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.191943064918484</v>
+        <v>-0.1976690873324015</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1053442968595051</v>
+        <v>-0.1042964223375817</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3558473703926779</v>
+        <v>-0.1941457740359379</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-4.242121562408132</v>
+        <v>-4.251823544308345</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3989572092931409</v>
+        <v>0.555778591098952</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.002234960775764508</v>
+        <v>-0.002044844780624838</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.05270041461877088</v>
+        <v>-0.05297023993025054</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005784134378162253</v>
+        <v>0.006717538576325246</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>-4.646260905495225</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-7.050149514927096</v>
+        <v>-7.050149514927107</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.1015468421563591</v>
@@ -709,7 +709,7 @@
         <v>-0.05807456573110367</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.0845411974337989</v>
+        <v>-0.08454119743379904</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-14.39410948239675</v>
+        <v>-15.0132270271874</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-10.19194368639926</v>
+        <v>-10.76820258895768</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-11.90744983167407</v>
+        <v>-11.78911246484649</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.171679796932432</v>
+        <v>-0.1758343743593878</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1252170819161148</v>
+        <v>-0.1317686486923153</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1388670597159564</v>
+        <v>-0.1388761997210023</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-2.59110014539005</v>
+        <v>-2.574366116991058</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.971020760685601</v>
+        <v>1.617125598522341</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-1.76221288933348</v>
+        <v>-1.442546076151751</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.03345305917723351</v>
+        <v>-0.03253412645475347</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02438489408874293</v>
+        <v>0.02122608010458396</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.0226172848640412</v>
+        <v>-0.01802827645989335</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-24.91074429385547</v>
+        <v>-24.12747005643858</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-26.30573019422493</v>
+        <v>-25.21069497292552</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-17.83966770503672</v>
+        <v>-17.77440054611714</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.2800091252095762</v>
+        <v>-0.2723324353361154</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3111801569301095</v>
+        <v>-0.2949907482323462</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2179251677220036</v>
+        <v>-0.2174582243215002</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-12.09893280619428</v>
+        <v>-11.47121081499523</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-9.037018137288451</v>
+        <v>-8.480358127896025</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.687464204343723</v>
+        <v>-4.700621156570945</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.1385938215736028</v>
+        <v>-0.1329102995976016</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.1112130465048884</v>
+        <v>-0.1025702191085216</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.06058633921885288</v>
+        <v>-0.0627948728865457</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>-14.08389881325599</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-6.569403491165748</v>
+        <v>-6.569403491165737</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.151232805117218</v>
@@ -873,7 +873,7 @@
         <v>-0.1660105683463643</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.08169279113000448</v>
+        <v>-0.08169279113000436</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-17.03528205545523</v>
+        <v>-16.80611947553556</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-18.00963095291485</v>
+        <v>-17.82144385315888</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-10.41268491828167</v>
+        <v>-10.28354444250836</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1985208017717259</v>
+        <v>-0.1951704592578332</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2081151833011625</v>
+        <v>-0.2070980920737271</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1272256306661126</v>
+        <v>-0.1258956631313108</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-9.072374932119416</v>
+        <v>-8.727961727586466</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-10.16921318563071</v>
+        <v>-10.19928756576726</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-2.586552581723995</v>
+        <v>-3.132186202295911</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.1091150105599746</v>
+        <v>-0.1055827270111043</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1214748625319456</v>
+        <v>-0.1221876345657184</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.03356401667761617</v>
+        <v>-0.04016843018261951</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>-13.99660622010468</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-13.42912759528568</v>
+        <v>-13.42912759528571</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>-0.1716721600417001</v>
@@ -955,7 +955,7 @@
         <v>-0.1678887797644312</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.1607522426041145</v>
+        <v>-0.1607522426041147</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-19.38112252420914</v>
+        <v>-19.2954793189246</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-18.79227480056583</v>
+        <v>-18.20423827785229</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-17.51646339663952</v>
+        <v>-17.29506385192504</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.2232379697289048</v>
+        <v>-0.2226445367797593</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2218282764860775</v>
+        <v>-0.2142299861062944</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2034713145151383</v>
+        <v>-0.2016831768262551</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-10.26815817583744</v>
+        <v>-9.426443309607405</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-8.832758286127044</v>
+        <v>-8.863093496064998</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-9.495470345352821</v>
+        <v>-9.163884601851493</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.1239650267456253</v>
+        <v>-0.1153821399730409</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1063652601214291</v>
+        <v>-0.1120045123615395</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.1159747399947605</v>
+        <v>-0.113429538926667</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>-8.601641032071761</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>-20.82519902015074</v>
+        <v>-20.82519902015073</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.09937728419654382</v>
@@ -1037,7 +1037,7 @@
         <v>-0.09788416724764581</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2190417395164787</v>
+        <v>-0.2190417395164786</v>
       </c>
     </row>
     <row r="20">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-13.33385180175885</v>
+        <v>-13.2087882300603</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-13.17795034758024</v>
+        <v>-13.19879423235025</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-24.50912764241863</v>
+        <v>-24.43319980689067</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1515669667942125</v>
+        <v>-0.1515507577888856</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1447507456072816</v>
+        <v>-0.1453433499695115</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2538111572931508</v>
+        <v>-0.2527632971237591</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-2.368851032528331</v>
+        <v>-3.437655649691776</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-3.27947606858258</v>
+        <v>-4.305476349463158</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-16.31353936979426</v>
+        <v>-15.72144744547704</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.02984089917319631</v>
+        <v>-0.04303861057697024</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.03896242093625659</v>
+        <v>-0.05090044350643211</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1774346642538213</v>
+        <v>-0.1732273767435965</v>
       </c>
     </row>
     <row r="22">
@@ -1110,7 +1110,7 @@
         <v>-10.50477333503156</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-8.997050786596549</v>
+        <v>-8.997050786596539</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>-0.1354578235188888</v>
@@ -1119,7 +1119,7 @@
         <v>-0.1248469915954095</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>-0.1086574390563149</v>
+        <v>-0.1086574390563148</v>
       </c>
     </row>
     <row r="23">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-13.4626048108088</v>
+        <v>-13.34108499229093</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-12.35440861340382</v>
+        <v>-12.5183091307952</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.7164877345718</v>
+        <v>-10.84228862883324</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.1568175780033307</v>
+        <v>-0.155667135998333</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1454212086562643</v>
+        <v>-0.1475325927296394</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1274410692055211</v>
+        <v>-0.1296709484625388</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-9.284052859209348</v>
+        <v>-9.40100615947571</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-8.370031309723826</v>
+        <v>-8.344696303141671</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-7.250823069360009</v>
+        <v>-7.133014385856116</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>-0.1108255340946155</v>
+        <v>-0.1121797484766979</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.1007566805501152</v>
+        <v>-0.09978972394319505</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.08780524763096904</v>
+        <v>-0.08762440760336826</v>
       </c>
     </row>
     <row r="25">
